--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834D12A8-36AB-4221-AD34-00DF830C0D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB7A86-6E86-4FA0-AB59-8CA6D2EA19FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,101 +42,68 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Orlando Magic (26-23) vs Detroit Pistons (6-42)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (28-21) vs Washington Wizards (9-39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memphis Grizzlies (18-31) vs Boston Celtics (37-12) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana Pacers (27-24) vs Charlotte Hornets (10-37) </t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (32-15) vs Miami Heat (26-23)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (23-25) vs Minnesota Timberwolves (34-15)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (17-31) vs Oklahoma City Thunder (34-15)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (33-16) vs Utah Jazz (24-26)</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers (15-34) vs Denver Nuggets (34-16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orlando Magic (68.18%) </t>
-  </si>
-  <si>
-    <t>Phoenix Suns (56.00%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (88.00%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (61.54%)</t>
-  </si>
-  <si>
     <t>Los Angeles Clippers (82.61%)</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves (78.26%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (76.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milwaukee Bucks (80.77%) </t>
-  </si>
-  <si>
-    <t>Denver Nuggets (83.33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orlando Magic (64.1%) </t>
-  </si>
-  <si>
-    <t>Boston Celtics (95.6%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (81.00%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (80.1%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (71.2%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (68.3%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (75.5%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (86.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah Jazz (61.5%) </t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Sun, Feb 4, 2024</t>
+    <t>Los Angeles Lakers (27-25) vs Charlotte Hornets (10-38)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (29-19) vs Cleveland Cavaliers (31-16)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (26-23) vs Philadelphia 76ers (30-18)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (33-15) vs Atlanta Hawks (22-27)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (21-25) vs Brooklyn Nets (20-28)</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (17-32) vs New Orleans Pelicans (28-21)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (69.23%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (68.00%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (70.83%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (50.00%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (58.33%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (79.5%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (76.2%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (64.2%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (73.6%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (53.00%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (74.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NBA, Monday 5th Feb 2024 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,28 +119,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,30 +161,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="mediumDashed">
         <color indexed="64"/>
       </left>
@@ -244,19 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,154 +496,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="49.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB7A86-6E86-4FA0-AB59-8CA6D2EA19FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480C2F8-3F98-453C-8269-E52FB032073C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,61 +42,70 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Los Angeles Clippers (82.61%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (27-25) vs Charlotte Hornets (10-38)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (29-19) vs Cleveland Cavaliers (31-16)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (26-23) vs Philadelphia 76ers (30-18)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (33-15) vs Atlanta Hawks (22-27)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (21-25) vs Brooklyn Nets (20-28)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (17-32) vs New Orleans Pelicans (28-21)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (69.23%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (68.00%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (70.83%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (50.00%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (58.33%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (79.5%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (76.2%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (64.2%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (73.6%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (53.00%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (74.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NBA, Monday 5th Feb 2024 </t>
+    <t xml:space="preserve"> NBA, Tuesday 6th Feb 2024 </t>
+  </si>
+  <si>
+    <t>Houston Rockets (23-26) vs Indiana Pacers (28-24)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (27-23) vs Brooklyn Nets (20-29)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (27-23) vs Miami Heat (26-24)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (18-32) vs New York Knicks (32-18)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (35-15) vs Chicago Bulls (23-27)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (35-15) vs Utah Jazz (25-26)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (33-17) vs Phoenix Suns (29-21)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (66.67%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (51.85%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (68.18%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (75.00%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (79.17%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (76.92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milwaukee Bucks (80.77%) </t>
+  </si>
+  <si>
+    <t>Indiana Pacers (68.7%)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (53.5%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (51.8%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (84.5%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (69.8%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (54.4%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (71.2%)</t>
   </si>
 </sst>
 </file>
@@ -175,13 +184,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,9 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -508,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -522,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -533,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -544,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -555,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -566,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -577,10 +589,21 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480C2F8-3F98-453C-8269-E52FB032073C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96331AE-F639-4431-BCC0-6ABC688A9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -42,70 +42,70 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t xml:space="preserve"> NBA, Tuesday 6th Feb 2024 </t>
-  </si>
-  <si>
-    <t>Houston Rockets (23-26) vs Indiana Pacers (28-24)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (27-23) vs Brooklyn Nets (20-29)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (27-23) vs Miami Heat (26-24)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (18-32) vs New York Knicks (32-18)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (35-15) vs Chicago Bulls (23-27)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (35-15) vs Utah Jazz (25-26)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (33-17) vs Phoenix Suns (29-21)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (66.67%)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (51.85%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (68.18%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (75.00%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (79.17%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (76.92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milwaukee Bucks (80.77%) </t>
-  </si>
-  <si>
-    <t>Indiana Pacers (68.7%)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (53.5%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (51.8%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (84.5%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (69.8%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (54.4%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (71.2%)</t>
+    <t>NBA, Wednesday 7th Feb 2024</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (17-33) vs Charlotte Hornets (10-39)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (32-16) vs Washington Wizards (9-40)</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (22-28) vs Boston Celtics (38-12)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (10-40) vs Miami Heat (27-24)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (22-25) vs Philadelphia 76ers (30-19)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (29-21) vs Los Angeles Clippers (34-15)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (6-43) vs Sacramento Kings (29-20)</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (43.48%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (69.23%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (88.46%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (53.85%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (68.00%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (82.61%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacramento Kings (63.64%)    </t>
+  </si>
+  <si>
+    <t>Toronto Raptors (75.9%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (87.8%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (87.7%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (71.6%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (53.4%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (73.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacramento Kings (78.4%)    </t>
   </si>
 </sst>
 </file>
@@ -184,14 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +508,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -602,7 +601,7 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96331AE-F639-4431-BCC0-6ABC688A9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731AB8A7-BA21-410F-B8F1-8F11FA5562B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,70 +42,61 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>NBA, Wednesday 7th Feb 2024</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (17-33) vs Charlotte Hornets (10-39)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (32-16) vs Washington Wizards (9-40)</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (22-28) vs Boston Celtics (38-12)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (10-40) vs Miami Heat (27-24)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (22-25) vs Philadelphia 76ers (30-19)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (29-21) vs Los Angeles Clippers (34-15)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (6-43) vs Sacramento Kings (29-20)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (43.48%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (69.23%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (88.46%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (53.85%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (68.00%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (82.61%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacramento Kings (63.64%)    </t>
-  </si>
-  <si>
-    <t>Toronto Raptors (75.9%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (87.8%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (87.7%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (71.6%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (53.4%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (73.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacramento Kings (78.4%)    </t>
+    <t>Atlanta Hawks (22-29) vs Philadelphia 76ers (30-20)</t>
+  </si>
+  <si>
+    <t>Washington Wizards (9-41) vs Boston Celtics (39-12)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (23-27) vs Toronto Raptors (18-33)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (10-40) vs Milwaukee Bucks (33-19)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (36-16) vs Sacramento Kings (29-21)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (30-21) vs Los Angeles Lakers (28-26)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (65.38%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston Celtics (88.89%) </t>
+  </si>
+  <si>
+    <t>Houston Rockets (66.67%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (77.78%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (84.00%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (66.67%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (62.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston Celtics (94.6%) </t>
+  </si>
+  <si>
+    <t>Houston Rockets (60.7%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (88.8%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (52.6%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (64.7%)</t>
+  </si>
+  <si>
+    <t>NBA, Friday 9th Feb 2024</t>
   </si>
 </sst>
 </file>
@@ -505,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -519,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -530,79 +521,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731AB8A7-BA21-410F-B8F1-8F11FA5562B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D039F-ECDD-4FE5-9D0D-6C636E0932FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
+    <workbookView xWindow="6000" yWindow="3848" windowWidth="18000" windowHeight="10432" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,61 +42,106 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Atlanta Hawks (22-29) vs Philadelphia 76ers (30-20)</t>
-  </si>
-  <si>
-    <t>Washington Wizards (9-41) vs Boston Celtics (39-12)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (23-27) vs Toronto Raptors (18-33)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (10-40) vs Milwaukee Bucks (33-19)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (36-16) vs Sacramento Kings (29-21)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (30-21) vs Los Angeles Lakers (28-26)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (65.38%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston Celtics (88.89%) </t>
-  </si>
-  <si>
     <t>Houston Rockets (66.67%)</t>
   </si>
   <si>
-    <t>Milwaukee Bucks (77.78%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (84.00%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (66.67%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (62.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston Celtics (94.6%) </t>
-  </si>
-  <si>
-    <t>Houston Rockets (60.7%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (88.8%)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (52.6%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (64.7%)</t>
-  </si>
-  <si>
-    <t>NBA, Friday 9th Feb 2024</t>
+    <t>Oklahoma City Thunder (35-16) vs Dallas Mavericks (29-23)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (8-43) vs Los Angeles Clippers (34-16)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (10-42) vs Brooklyn Nets (20-31)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (18-34) vs Charlotte Hornets (10-41)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (25-27) vs Orlando Magic (28-24)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (30-21) vs Washington Wizards (9-42)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (23-28) vs Atlanta Hawks (23-29)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (29-25) vs New York Knicks (33-19)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (34-16) vs Toronto Raptors (19-33)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (31-21) vs Golden State Warriors (24-25)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (30-22) vs Portland Trail Blazers (15-36)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (76.92%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (79.17%)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (42.86%)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (20.83%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (69.57%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (62.96%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (73.08%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (69.23%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (59.26%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (60.00%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (64.5%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (94.0%)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (74.8%)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (66.9%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (68.5%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (63.6%)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (56.4%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (56.0%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (78.3%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (55.2%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (81.8%)</t>
+  </si>
+  <si>
+    <t>NBA, Saturday 10th Feb 2024</t>
   </si>
 </sst>
 </file>
@@ -496,11 +541,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -510,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -521,68 +564,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D039F-ECDD-4FE5-9D0D-6C636E0932FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C774AF1-AF9F-4A76-8CB5-449BFADF30F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3848" windowWidth="18000" windowHeight="10432" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,106 +42,25 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Houston Rockets (66.67%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (35-16) vs Dallas Mavericks (29-23)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (8-43) vs Los Angeles Clippers (34-16)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (10-42) vs Brooklyn Nets (20-31)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (18-34) vs Charlotte Hornets (10-41)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (25-27) vs Orlando Magic (28-24)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (30-21) vs Washington Wizards (9-42)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (23-28) vs Atlanta Hawks (23-29)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (29-25) vs New York Knicks (33-19)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (34-16) vs Toronto Raptors (19-33)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (31-21) vs Golden State Warriors (24-25)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (30-22) vs Portland Trail Blazers (15-36)</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder (76.92%)</t>
   </si>
   <si>
-    <t>Los Angeles Clippers (79.17%)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (42.86%)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (20.83%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (69.57%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (62.96%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (73.08%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (69.23%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (59.26%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (60.00%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (64.5%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (94.0%)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (74.8%)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (66.9%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (68.5%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (63.6%)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (56.4%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (56.0%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (78.3%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (55.2%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (81.8%)</t>
-  </si>
-  <si>
-    <t>NBA, Saturday 10th Feb 2024</t>
+    <t>Boston Celtics (40-12) vs Miami Heat (28-24)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (30-21) vs Oklahoma City Thunder (35-17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NBA, Sunday 11th Feb 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boston Celtics (89.29%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boston Celtics (69.5%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (64.0%)</t>
   </si>
 </sst>
 </file>
@@ -541,9 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -553,7 +474,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -567,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -578,109 +499,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C774AF1-AF9F-4A76-8CB5-449BFADF30F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6285647-53F6-4BF6-8ACE-9DC838D28F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,25 +42,97 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder (76.92%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (40-12) vs Miami Heat (28-24)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (30-21) vs Oklahoma City Thunder (35-17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NBA, Sunday 11th Feb 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boston Celtics (89.29%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boston Celtics (69.5%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (64.0%)</t>
+    <t>NBA, Monday 12th Feb 2024</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (30-25) vs Charlotte Hornets (11-41)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (31-21) vs Cleveland Cavaliers (35-16)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (25-28) vs Atlanta Hawks (24-29)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (10-43) vs Toronto Raptors (19-34)</t>
+  </si>
+  <si>
+    <t>New York Knicks (33-20) vs Houston Rockets (23-29)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (31-22) vs Memphis Grizzlies (18-35)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (36-17) vs Milwaukee Bucks (34-19)</t>
+  </si>
+  <si>
+    <t>Washington Wizards (9-43) vs Dallas Mavericks (30-23)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (25-25) vs Utah Jazz (26-27)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (36-16) vs Los Angeles Clippers (35-16)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (60.71%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (69.23%)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (55.56%)</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (44.00%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (70.37%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (60.00%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (84.00%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (53.57%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (70.83%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (80.00%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (82.3%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (86.1%)</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (62.6%)</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (76.3%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (54.9%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (77.0%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (53.6%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (83.8%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (53.5%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (64.7%)</t>
   </si>
 </sst>
 </file>
@@ -460,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -474,7 +546,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -488,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -499,10 +571,98 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6285647-53F6-4BF6-8ACE-9DC838D28F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D691C6B-BBA3-4E4C-B888-44B6863C880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,97 +42,61 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>NBA, Monday 12th Feb 2024</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (30-25) vs Charlotte Hornets (11-41)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (31-21) vs Cleveland Cavaliers (35-16)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (25-28) vs Atlanta Hawks (24-29)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (10-43) vs Toronto Raptors (19-34)</t>
-  </si>
-  <si>
-    <t>New York Knicks (33-20) vs Houston Rockets (23-29)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (31-22) vs Memphis Grizzlies (18-35)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (36-17) vs Milwaukee Bucks (34-19)</t>
-  </si>
-  <si>
-    <t>Washington Wizards (9-43) vs Dallas Mavericks (30-23)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (25-25) vs Utah Jazz (26-27)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (36-16) vs Los Angeles Clippers (35-16)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (60.71%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (69.23%)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (55.56%)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (44.00%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (70.37%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (60.00%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (84.00%)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (53.57%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (70.83%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (80.00%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (82.3%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (86.1%)</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (62.6%)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (76.3%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (54.9%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (77.0%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (53.6%)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (83.8%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (53.5%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (64.7%)</t>
+    <t>Boston Celtics (41-12) vs Brooklyn Nets (21-31)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (36-17) vs Orlando Magic (29-24)</t>
+  </si>
+  <si>
+    <t>Miami Heat (28-25) vs Milwaukee Bucks (35-19)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (30-22) vs Phoenix Suns (31-22)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (37-16) vs Portland Trail Blazers (15-37)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (8-44) vs Los Angeles Lakers (29-26)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (89.29%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (77.78%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (79.31%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (62.50%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (79.17%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (67.86%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (71.9%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (55.7%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (74.6%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (71.6%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (81.8%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (76.7%)</t>
+  </si>
+  <si>
+    <t>NBA, Tuesday 13th Feb 2024</t>
   </si>
 </sst>
 </file>
@@ -532,11 +496,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -546,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -557,112 +519,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D691C6B-BBA3-4E4C-B888-44B6863C880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A16E31-EB4E-4154-BA2D-ED778B348B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,61 +42,124 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Boston Celtics (41-12) vs Brooklyn Nets (21-31)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (36-17) vs Orlando Magic (29-24)</t>
-  </si>
-  <si>
-    <t>Miami Heat (28-25) vs Milwaukee Bucks (35-19)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (30-22) vs Phoenix Suns (31-22)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (37-16) vs Portland Trail Blazers (15-37)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (8-44) vs Los Angeles Lakers (29-26)</t>
-  </si>
-  <si>
     <t>Boston Celtics (89.29%)</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder (77.78%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (79.31%)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (62.50%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (79.17%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (67.86%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (71.9%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (55.7%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (74.6%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (71.6%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (81.8%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (76.7%)</t>
-  </si>
-  <si>
     <t>NBA, Tuesday 13th Feb 2024</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (24-30) vs Charlotte Hornets (12-41)</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (46.43%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (33-21) vs Orlando Magic (29-25)</t>
+  </si>
+  <si>
+    <t>New York Knicks (70.37%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (29-25) vs Philadelphia 76ers (32-21)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (21-32) vs Boston Celtics (42-12)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (26-28) vs Cleveland Cavaliers (35-17)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (30-26) vs Toronto Raptors (19-35)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (24-29) vs Memphis Grizzlies (18-36)</t>
+  </si>
+  <si>
+    <t>Washington Wizards (9-44) vs New Orleans Pelicans (32-22)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (11-43) vs Dallas Mavericks (31-23)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (30-23) vs Denver Nuggets (36-18)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (8-45) vs Phoenix Suns (32-22)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (30-26) vs Utah Jazz (26-28)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (35-17) vs Golden State Warriors (26-25)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (62.96%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (66.67%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (60.71%)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (67.86%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (60.00%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (55.17%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (84.00%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (60.71%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (68.97%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (76.92%)</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (76.0%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (53.6%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (68.1%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (83.7%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (85.7%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (50.0%)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (58.0%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (88.2%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (81.0%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (68.9%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (86.7%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (65.9%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (50.7%)</t>
   </si>
 </sst>
 </file>
@@ -496,9 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -508,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -519,68 +584,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A16E31-EB4E-4154-BA2D-ED778B348B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD9A9E-2DC2-4C48-94C2-87AB202F880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,124 +42,34 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Boston Celtics (89.29%)</t>
-  </si>
-  <si>
-    <t>NBA, Tuesday 13th Feb 2024</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (24-30) vs Charlotte Hornets (12-41)</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (46.43%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (33-21) vs Orlando Magic (29-25)</t>
-  </si>
-  <si>
-    <t>New York Knicks (70.37%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (29-25) vs Philadelphia 76ers (32-21)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (21-32) vs Boston Celtics (42-12)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (26-28) vs Cleveland Cavaliers (35-17)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (30-26) vs Toronto Raptors (19-35)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (24-29) vs Memphis Grizzlies (18-36)</t>
-  </si>
-  <si>
-    <t>Washington Wizards (9-44) vs New Orleans Pelicans (32-22)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (11-43) vs Dallas Mavericks (31-23)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (30-23) vs Denver Nuggets (36-18)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (8-45) vs Phoenix Suns (32-22)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (30-26) vs Utah Jazz (26-28)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (35-17) vs Golden State Warriors (26-25)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (62.96%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (66.67%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (60.71%)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (67.86%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (60.00%)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (55.17%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (84.00%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (60.71%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (68.97%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (76.92%)</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (76.0%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (53.6%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (68.1%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (83.7%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (85.7%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (50.0%)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (58.0%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (88.2%)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (81.0%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (68.9%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (86.7%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (65.9%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (50.7%)</t>
+    <t>NBA, Thursday 15th Feb 2024</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (35-20) vs Memphis Grizzlies (19-36)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (26-26) vs Utah Jazz (26-29)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (38-16) vs Portland Trail Blazers (15-38)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (76.67%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (65.38%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (79.17%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (67.9%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (51.7%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (82.3%)</t>
   </si>
 </sst>
 </file>
@@ -559,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -573,7 +483,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -584,145 +494,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD9A9E-2DC2-4C48-94C2-87AB202F880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42132AD-B03D-4C41-A925-6910D52DEBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,34 +42,112 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>NBA, Thursday 15th Feb 2024</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (35-20) vs Memphis Grizzlies (19-36)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (26-26) vs Utah Jazz (26-29)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (38-16) vs Portland Trail Blazers (15-38)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (76.67%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (65.38%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (79.17%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (67.9%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (51.7%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (82.3%)</t>
+    <t>Orlando Magic (30-25) vs Cleveland Cavaliers (36-17)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (8-46) vs Indiana Pacers (31-26)</t>
+  </si>
+  <si>
+    <t>New York Knicks (33-22) vs Philadelphia 76ers (32-22)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (21-33) vs Toronto Raptors (19-36)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (33-22) vs Dallas Mavericks (32-23)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (43-12) vs Chicago Bulls (26-29)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (24-30) vs New Orleans Pelicans (33-22)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (36-17) vs Oklahoma City Thunder (37-17)</t>
+  </si>
+  <si>
+    <t>Washington Wizards (9-45) vs Denver Nuggets (36-19)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (13-41) vs Utah Jazz (26-30)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (31-26) vs Golden State Warriors (27-26)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (11-44) vs Sacramento Kings (31-23)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (69.23%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (60.71%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (70.37%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (62.07%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (89.66%)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (67.86%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (77.78%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (80.77%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (62.96%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (68.97%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (62.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  NBA, Thursday 22nd Feb 2024</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (75.8%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (79.9%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (54.0%)</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (56.6%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (51.7%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (78.4%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (74.3%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (52.9%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (84.4%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (89.7%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (74.0%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (79.6%)</t>
   </si>
 </sst>
 </file>
@@ -148,11 +226,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,11 +554,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -482,47 +565,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42132AD-B03D-4C41-A925-6910D52DEBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279B2B1-4232-4ACE-82E3-537875FE6BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,112 +42,97 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Orlando Magic (30-25) vs Cleveland Cavaliers (36-17)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (8-46) vs Indiana Pacers (31-26)</t>
-  </si>
-  <si>
-    <t>New York Knicks (33-22) vs Philadelphia 76ers (32-22)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (21-33) vs Toronto Raptors (19-36)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (33-22) vs Dallas Mavericks (32-23)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (43-12) vs Chicago Bulls (26-29)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (24-30) vs New Orleans Pelicans (33-22)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (36-17) vs Oklahoma City Thunder (37-17)</t>
-  </si>
-  <si>
-    <t>Washington Wizards (9-45) vs Denver Nuggets (36-19)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (13-41) vs Utah Jazz (26-30)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (31-26) vs Golden State Warriors (27-26)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (11-44) vs Sacramento Kings (31-23)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (69.23%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (60.71%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (70.37%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (62.07%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (89.66%)</t>
-  </si>
-  <si>
     <t>Houston Rockets (67.86%)</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder (77.78%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (80.77%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (62.96%)</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers (68.97%)</t>
   </si>
   <si>
-    <t>Sacramento Kings (62.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  NBA, Thursday 22nd Feb 2024</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (75.8%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (79.9%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (54.0%)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (56.6%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (51.7%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (78.4%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (74.3%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (52.9%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (84.4%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (89.7%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (74.0%)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (79.6%)</t>
+    <t>NBA, Friday 23rd Feb 2024</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (53.5%)</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (20-36) vs Atlanta Hawks (24-31)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (36-18) vs Philadelphia 76ers (32-23)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (33-23) vs Houston Rockets (24-31)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (36-18) vs Memphis Grizzlies (20-36)</t>
+  </si>
+  <si>
+    <t>Miami Heat (30-25) vs New Orleans Pelicans (34-22)</t>
+  </si>
+  <si>
+    <t>Washington Wizards (9-46) vs Oklahoma City Thunder (38-17)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (14-41) vs Golden State Warriors (28-26)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (35-21) vs Minnesota Timberwolves (39-16)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (37-19) vs Portland Trail Blazers (15-39)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (11-45) vs Los Angeles Lakers (31-27)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (65.52%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (76.92%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (62.96%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (78.57%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (51.72%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (79.17%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (81.48%)</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (67.4%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (68.8%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (60.4%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (80.2%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (66.6%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (92.2%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (91.7%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (78.0%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (68.7%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (79.1%)</t>
   </si>
 </sst>
 </file>
@@ -554,9 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -566,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -577,134 +564,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279B2B1-4232-4ACE-82E3-537875FE6BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B8D41B-1A1C-43E9-BCCE-CA69B514F10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,97 +42,34 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Houston Rockets (67.86%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (68.97%)</t>
-  </si>
-  <si>
-    <t>NBA, Friday 23rd Feb 2024</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (53.5%)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (20-36) vs Atlanta Hawks (24-31)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (36-18) vs Philadelphia 76ers (32-23)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (33-23) vs Houston Rockets (24-31)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (36-18) vs Memphis Grizzlies (20-36)</t>
-  </si>
-  <si>
-    <t>Miami Heat (30-25) vs New Orleans Pelicans (34-22)</t>
-  </si>
-  <si>
-    <t>Washington Wizards (9-46) vs Oklahoma City Thunder (38-17)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (14-41) vs Golden State Warriors (28-26)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (35-21) vs Minnesota Timberwolves (39-16)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (37-19) vs Portland Trail Blazers (15-39)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (11-45) vs Los Angeles Lakers (31-27)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (65.52%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (76.92%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (62.96%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (78.57%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (51.72%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (79.17%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (81.48%)</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (67.4%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (68.8%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (60.4%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (80.2%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (66.6%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (92.2%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (91.7%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (78.0%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (68.7%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (79.1%)</t>
+    <t xml:space="preserve">NBA, Saturday 24th Feb 2024 </t>
+  </si>
+  <si>
+    <t>Orlando Magic (31-25) vs Detroit Pistons (8-47)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (44-12) vs New York Knicks (34-22)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (21-34) vs Minnesota Timberwolves (39-17)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (69.23%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (89.66%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (76.00%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (70.1%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (72.7%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (79.3%)</t>
   </si>
 </sst>
 </file>
@@ -539,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -553,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -564,112 +501,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B8D41B-1A1C-43E9-BCCE-CA69B514F10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DECAAA-B0AB-4023-8A0C-BE85E949BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,34 +42,106 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t xml:space="preserve">NBA, Saturday 24th Feb 2024 </t>
-  </si>
-  <si>
-    <t>Orlando Magic (31-25) vs Detroit Pistons (8-47)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (44-12) vs New York Knicks (34-22)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (21-34) vs Minnesota Timberwolves (39-17)</t>
-  </si>
-  <si>
     <t>Orlando Magic (69.23%)</t>
   </si>
   <si>
-    <t>Boston Celtics (89.66%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (76.00%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (70.1%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (72.7%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (79.3%)</t>
+    <t>NBA, Sunday 25th Feb 2024</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (36-21) vs Philadelphia 76ers (33-23)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (32-27) vs Phoenix Suns (33-24)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (33-23) vs Indiana Pacers (32-26)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (36-19) vs Washington Wizards (9-47)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (32-25) vs Atlanta Hawks (24-32)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (38-19) vs Golden State Warriors (29-26)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (39-17) vs Houston Rockets (25-31)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (26-30) vs New Orleans Pelicans (34-23)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (11-46) vs Utah Jazz (26-31)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (14-42) vs Portland Trail Blazers (15-40)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (32-23) vs Los Angeles Clippers (37-18)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (76.67%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (70.00%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (62.07%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (65.52%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (81.48%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (79.31%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (60.71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah Jazz (60.71%) </t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (76.92%)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (66.67%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (51.9%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (67.2%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (55.7%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (87.1%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (58.7%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (67.6%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (71.1%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (66.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah Jazz (79.5%) </t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers (66.0%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (73.8%)</t>
   </si>
 </sst>
 </file>
@@ -101,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,15 +197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="mediumDashed">
         <color indexed="64"/>
       </left>
@@ -148,18 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,11 +533,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -490,7 +545,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -501,35 +556,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DECAAA-B0AB-4023-8A0C-BE85E949BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6835D6C3-6394-4F6A-A92B-DAB20FB9A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,106 +42,43 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Orlando Magic (69.23%)</t>
-  </si>
-  <si>
-    <t>NBA, Sunday 25th Feb 2024</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (36-21) vs Philadelphia 76ers (33-23)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (32-27) vs Phoenix Suns (33-24)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (33-23) vs Indiana Pacers (32-26)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (36-19) vs Washington Wizards (9-47)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (32-25) vs Atlanta Hawks (24-32)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (38-19) vs Golden State Warriors (29-26)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (39-17) vs Houston Rockets (25-31)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (26-30) vs New Orleans Pelicans (34-23)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (11-46) vs Utah Jazz (26-31)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (14-42) vs Portland Trail Blazers (15-40)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (32-23) vs Los Angeles Clippers (37-18)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (76.67%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (70.00%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (62.07%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (65.52%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (81.48%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (79.31%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (60.71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah Jazz (60.71%) </t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (76.92%)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (66.67%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (51.9%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (67.2%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (55.7%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (87.1%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (58.7%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (67.6%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (71.1%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (66.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah Jazz (79.5%) </t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers (66.0%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (73.8%)</t>
+    <t>NBA, Monday 26th Feb 2024</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (21-36) vs Indiana Pacers (33-26)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (8-48) vs New York Knicks (34-23)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (21-35) vs Memphis Grizzlies (20-37)</t>
+  </si>
+  <si>
+    <t>Miami Heat (31-25) vs Sacramento Kings (33-23)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (63.33%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (67.86%)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (56.67%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (64.00%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (65.7%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (76.8%)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (50.2%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (62.4%)</t>
   </si>
 </sst>
 </file>
@@ -533,9 +470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -545,7 +484,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -556,123 +495,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6835D6C3-6394-4F6A-A92B-DAB20FB9A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B6B7FB-E8BE-40BF-A24D-E88ECD3DF8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,43 +42,106 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>NBA, Monday 26th Feb 2024</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (21-36) vs Indiana Pacers (33-26)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (8-48) vs New York Knicks (34-23)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (21-35) vs Memphis Grizzlies (20-37)</t>
-  </si>
-  <si>
-    <t>Miami Heat (31-25) vs Sacramento Kings (33-23)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (63.33%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (67.86%)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (56.67%)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (64.00%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (65.7%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (76.8%)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (50.2%)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (62.4%)</t>
+    <t>NBA, Tuesday 27th Feb 2024</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (33-24) vs Cleveland Cavaliers (37-19)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (22-35) vs Orlando Magic (32-26)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (29-27) vs Washington Wizards (9-48)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (27-31) vs Atlanta Hawks (25-32)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (33-24) vs Boston Celtics (45-12)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (11-47) vs Minnesota Timberwolves (40-17)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (34-24) vs New York Knicks (35-23)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (8-49) vs Chicago Bulls (27-30)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (15-42) vs Milwaukee Bucks (37-21)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (25-32) vs Oklahoma City Thunder (40-17)</t>
+  </si>
+  <si>
+    <t>Miami Heat (32-25) vs Portland Trail Blazers (15-41)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (65.52%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (69.23%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (51.61%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (62.07%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (89.66%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (76.92%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (68.97%)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (53.57%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (76.67%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (79.31%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (53.57%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (71.9%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (77.6%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (82.5%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (52.0%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (90.0%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (90.3%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (50.8%)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (77.0%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (90.1%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (83.1%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (72.7%)</t>
   </si>
 </sst>
 </file>
@@ -470,11 +533,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -498,10 +559,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -509,10 +570,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -520,10 +581,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -531,10 +592,87 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B6B7FB-E8BE-40BF-A24D-E88ECD3DF8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD20DA3-B473-4DBB-B2DE-D7DF40544C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,106 +42,61 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>NBA, Tuesday 27th Feb 2024</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (33-24) vs Cleveland Cavaliers (37-19)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (22-35) vs Orlando Magic (32-26)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (29-27) vs Washington Wizards (9-48)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (27-31) vs Atlanta Hawks (25-32)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (33-24) vs Boston Celtics (45-12)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (11-47) vs Minnesota Timberwolves (40-17)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (34-24) vs New York Knicks (35-23)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (8-49) vs Chicago Bulls (27-30)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (15-42) vs Milwaukee Bucks (37-21)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (25-32) vs Oklahoma City Thunder (40-17)</t>
-  </si>
-  <si>
-    <t>Miami Heat (32-25) vs Portland Trail Blazers (15-41)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (65.52%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (69.23%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (51.61%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (62.07%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (89.66%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (76.92%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (68.97%)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (53.57%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (76.67%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (79.31%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (53.57%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (71.9%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (77.6%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (82.5%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (52.0%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (90.0%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (90.3%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (50.8%)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (77.0%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (90.1%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (83.1%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (72.7%)</t>
+    <t>New Orleans Pelicans (35-24) vs Indiana Pacers (33-27)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (20-38) vs Minnesota Timberwolves (41-17)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (33-25) vs Toronto Raptors (22-36)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (38-19) vs Chicago Bulls (27-31)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (33-24) vs Denver Nuggets (39-19)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (32-28) vs Los Angeles Clippers (37-19)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (61.29%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (77.78%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (58.06%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (66.67%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (81.48%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (74.07%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (58.8%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (57.2%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (88.9%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (73.0%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (70.5%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (74.8%)</t>
+  </si>
+  <si>
+    <t>NBA, Wednesday 28th Feb 2024</t>
   </si>
 </sst>
 </file>
@@ -533,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,7 +500,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -556,123 +511,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD20DA3-B473-4DBB-B2DE-D7DF40544C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A174D3-8FD0-423D-91D6-F01FB899B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,61 +42,79 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>New Orleans Pelicans (35-24) vs Indiana Pacers (33-27)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (20-38) vs Minnesota Timberwolves (41-17)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (33-25) vs Toronto Raptors (22-36)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (38-19) vs Chicago Bulls (27-31)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (33-24) vs Denver Nuggets (39-19)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (32-28) vs Los Angeles Clippers (37-19)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (61.29%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (77.78%)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (58.06%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (66.67%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (81.48%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (74.07%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (58.8%)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (57.2%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (88.9%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (73.0%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (70.5%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (74.8%)</t>
-  </si>
-  <si>
-    <t>NBA, Wednesday 28th Feb 2024</t>
+    <t>NBA, Thursday 29th Feb 2024</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (38-21) vs Charlotte Hornets (15-43)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (27-32) vs Orlando Magic (33-26)</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (26-32) vs Brooklyn Nets (22-36)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (30-27) vs New York Knicks (35-24)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (41-17) vs San Antonio Spurs (11-48)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (25-33) vs Phoenix Suns (34-24)</t>
+  </si>
+  <si>
+    <t>Miami Heat (33-25) vs Denver Nuggets (40-19)</t>
+  </si>
+  <si>
+    <t>Washington Wizards (9-49) vs Los Angeles Lakers (33-28)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (77.42%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (70.37%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (66.67%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (80.00%)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (66.67%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (82.14%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (70.00%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (85.4%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (68.9%)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (51.61%)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (53.9%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (53.8%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (84.9%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (75.6%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (62.5%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (83.5%)</t>
   </si>
 </sst>
 </file>
@@ -488,9 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -500,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -511,68 +531,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A174D3-8FD0-423D-91D6-F01FB899B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD05C528-B972-43A9-A267-A8A410916448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,79 +42,88 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>NBA, Thursday 29th Feb 2024</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (38-21) vs Charlotte Hornets (15-43)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (27-32) vs Orlando Magic (33-26)</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (26-32) vs Brooklyn Nets (22-36)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (30-27) vs New York Knicks (35-24)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (41-17) vs San Antonio Spurs (11-48)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (25-33) vs Phoenix Suns (34-24)</t>
-  </si>
-  <si>
-    <t>Miami Heat (33-25) vs Denver Nuggets (40-19)</t>
-  </si>
-  <si>
-    <t>Washington Wizards (9-49) vs Los Angeles Lakers (33-28)</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks (77.42%)</t>
   </si>
   <si>
-    <t>Orlando Magic (70.37%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (66.67%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (80.00%)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (66.67%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (82.14%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (70.00%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (85.4%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (68.9%)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (51.61%)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (53.9%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (53.8%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (84.9%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (75.6%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (62.5%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (83.5%)</t>
+    <t>NBA, Friday 1st Mar 2024</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (38-20) vs Detroit Pistons (9-49)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (15-44) vs Philadelphia 76ers (33-25)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (34-25) vs Boston Celtics (46-12)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (31-27) vs Toronto Raptors (22-37)</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers (15-42) vs Memphis Grizzlies (20-39)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (33-25) vs Minnesota Timberwolves (42-17)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (34-27) vs New Orleans Pelicans (35-25)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (39-21) vs Chicago Bulls (28-31)</t>
+  </si>
+  <si>
+    <t>Washington Wizards (9-50) vs Los Angeles Clippers (37-20)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (66.67%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (58.06%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (90.00%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (51.61%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (78.57%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (62.50%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (71.43%)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (68.97%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (75.4%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (87.4%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (82.8%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (59.0%)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (59.2%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (76.2%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (64.5%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (53.5%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (91.3%)</t>
   </si>
 </sst>
 </file>
@@ -506,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -520,7 +529,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -531,90 +540,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD05C528-B972-43A9-A267-A8A410916448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9247D2F7-D791-4EE9-8CAE-0A8C010AE704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,88 +42,52 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Milwaukee Bucks (77.42%)</t>
-  </si>
-  <si>
-    <t>NBA, Friday 1st Mar 2024</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (38-20) vs Detroit Pistons (9-49)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (15-44) vs Philadelphia 76ers (33-25)</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (34-25) vs Boston Celtics (46-12)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (31-27) vs Toronto Raptors (22-37)</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers (15-42) vs Memphis Grizzlies (20-39)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (33-25) vs Minnesota Timberwolves (42-17)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (34-27) vs New Orleans Pelicans (35-25)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (39-21) vs Chicago Bulls (28-31)</t>
-  </si>
-  <si>
-    <t>Washington Wizards (9-50) vs Los Angeles Clippers (37-20)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (66.67%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (58.06%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (90.00%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (51.61%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (78.57%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (62.50%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (71.43%)</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies (68.97%)</t>
   </si>
   <si>
-    <t>Cleveland Cavaliers (75.4%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (87.4%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (82.8%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (59.0%)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (59.2%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (76.2%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (64.5%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (53.5%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (91.3%)</t>
+    <t>NBA, Saturday 2nd Mar 2024</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (26-33) vs Brooklyn Nets (23-36)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (27-33) vs Miami Heat (33-26)</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers (16-42) vs Memphis Grizzlies (20-40)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (41-19) vs Los Angeles Lakers (34-28)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (25-34) vs Phoenix Suns (35-24)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (62.07%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (82.76%)</t>
+  </si>
+  <si>
+    <t>Houston Rockets (66.67%)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (51.61%)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (59.2%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (70.1%)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (63.3%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (50.3%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (75.3%)</t>
   </si>
 </sst>
 </file>
@@ -515,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D16" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -543,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -554,10 +518,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -565,10 +529,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -576,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -587,54 +551,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9247D2F7-D791-4EE9-8CAE-0A8C010AE704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A1E0A8-F247-4C5A-9A80-0DBB82316607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,52 +42,79 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Memphis Grizzlies (68.97%)</t>
-  </si>
-  <si>
-    <t>NBA, Saturday 2nd Mar 2024</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (26-33) vs Brooklyn Nets (23-36)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (27-33) vs Miami Heat (33-26)</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers (16-42) vs Memphis Grizzlies (20-40)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (41-19) vs Los Angeles Lakers (34-28)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (25-34) vs Phoenix Suns (35-24)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (62.07%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (82.76%)</t>
-  </si>
-  <si>
-    <t>Houston Rockets (66.67%)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (51.61%)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (59.2%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (70.1%)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (63.3%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (50.3%)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (75.3%)</t>
+    <t>Philadelphia 76ers (34-25) vs Dallas Mavericks (34-26)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (32-27) vs Boston Celtics (47-12)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (38-20) vs Minnesota Timberwolves (42-18)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (9-50) vs Orlando Magic (34-26)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (15-45) vs Toronto Raptors (22-38)</t>
+  </si>
+  <si>
+    <t>New York Knicks (35-25) vs Cleveland Cavaliers (39-20)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (34-28) vs San Antonio Spurs (12-48)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (41-18) vs Phoenix Suns (35-24)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (59.38%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (90.32%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (75.86%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (71.43%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (66.67%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (62.50%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (80.00%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (72.4%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (82.9%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (63.6%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (78.5%)</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets (60.0%)</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (80.1%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (73.9%)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (66.6%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (64.1%)</t>
+  </si>
+  <si>
+    <t>NBA, Sunday 3rd Mar 2024</t>
   </si>
 </sst>
 </file>
@@ -479,21 +506,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="49.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -504,57 +529,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A1E0A8-F247-4C5A-9A80-0DBB82316607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B4D70E-C470-44E2-A9CE-DE10EEDC3F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,79 +42,61 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Philadelphia 76ers (34-25) vs Dallas Mavericks (34-26)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (32-27) vs Boston Celtics (47-12)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (38-20) vs Minnesota Timberwolves (42-18)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (9-50) vs Orlando Magic (34-26)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (15-45) vs Toronto Raptors (22-38)</t>
-  </si>
-  <si>
-    <t>New York Knicks (35-25) vs Cleveland Cavaliers (39-20)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (34-28) vs San Antonio Spurs (12-48)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (41-18) vs Phoenix Suns (35-24)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (59.38%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (90.32%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (75.86%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (71.43%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (66.67%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (62.50%)</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder (80.00%)</t>
   </si>
   <si>
-    <t>Dallas Mavericks (72.4%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (82.9%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (63.6%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (78.5%)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets (60.0%)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors (80.1%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (73.9%)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (66.6%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (64.1%)</t>
-  </si>
-  <si>
-    <t>NBA, Sunday 3rd Mar 2024</t>
+    <t>NBA, Monday 4th Mar 2024</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (20-41) vs Brooklyn Nets (24-36)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (39-20) vs Milwaukee Bucks (40-21)</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers (17-42) vs Minnesota Timberwolves (42-19)</t>
+  </si>
+  <si>
+    <t>Washington Wizards (9-51) vs Utah Jazz (27-34)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (28-32) vs Sacramento Kings (34-25)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (42-18) vs Los Angeles Lakers (34-29)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (53.12%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (77.42%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (73.33%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (62.07%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (61.54%)</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (77.2%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (56.0%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (92.5%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (72.5%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (64.0%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (60.4%)</t>
   </si>
 </sst>
 </file>
@@ -506,9 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -518,7 +502,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -529,90 +513,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B4D70E-C470-44E2-A9CE-DE10EEDC3F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365DCCAB-5FF1-4C53-8AF4-33BCDB1FBF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,61 +42,88 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder (80.00%)</t>
-  </si>
-  <si>
-    <t>NBA, Monday 4th Mar 2024</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (20-41) vs Brooklyn Nets (24-36)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (39-20) vs Milwaukee Bucks (40-21)</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers (17-42) vs Minnesota Timberwolves (42-19)</t>
-  </si>
-  <si>
-    <t>Washington Wizards (9-51) vs Utah Jazz (27-34)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (28-32) vs Sacramento Kings (34-25)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (42-18) vs Los Angeles Lakers (34-29)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (53.12%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (77.42%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (73.33%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (62.07%)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (61.54%)</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets (77.2%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (56.0%)</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves (92.5%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (72.5%)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (64.0%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (60.4%)</t>
+    <t>NBA, Tuesday 5th Mar 2024</t>
+  </si>
+  <si>
+    <t>Orlando Magic (35-26) vs Charlotte Hornets (15-46)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (35-25) vs Brooklyn Nets (24-37)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (48-12) vs Cleveland Cavaliers (39-21)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (9-51) vs Miami Heat (34-26)</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks (26-34) vs New York Knicks (36-25)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (36-25) vs Toronto Raptors (23-38)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (13-48) vs Houston Rockets (26-34)</t>
+  </si>
+  <si>
+    <t>Indiana Pacers (34-29) vs Dallas Mavericks (34-27)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (35-26) vs Denver Nuggets (42-19)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (72.41%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (59.38%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (90.62%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (55.17%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (64.52%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (60.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Rockets (66.67%) </t>
+  </si>
+  <si>
+    <t>Indiana Pacers (62.50%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (82.76%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (82.3%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (58.1%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (73.1%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (80.3%)</t>
+  </si>
+  <si>
+    <t>New York Knicks (68.4%)</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans (75.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Rockets (71.5%) </t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (61.3%)</t>
+  </si>
+  <si>
+    <t>Denver Nuggets (72.6%)</t>
   </si>
 </sst>
 </file>
@@ -488,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -502,7 +529,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -513,68 +540,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365DCCAB-5FF1-4C53-8AF4-33BCDB1FBF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A3024-A8D4-448B-B31D-E4739A42C2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,88 +42,79 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>NBA, Tuesday 5th Mar 2024</t>
-  </si>
-  <si>
-    <t>Orlando Magic (35-26) vs Charlotte Hornets (15-46)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (35-25) vs Brooklyn Nets (24-37)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (48-12) vs Cleveland Cavaliers (39-21)</t>
-  </si>
-  <si>
-    <t>Detroit Pistons (9-51) vs Miami Heat (34-26)</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks (26-34) vs New York Knicks (36-25)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (36-25) vs Toronto Raptors (23-38)</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs (13-48) vs Houston Rockets (26-34)</t>
-  </si>
-  <si>
-    <t>Indiana Pacers (34-29) vs Dallas Mavericks (34-27)</t>
-  </si>
-  <si>
-    <t>Phoenix Suns (35-26) vs Denver Nuggets (42-19)</t>
-  </si>
-  <si>
     <t>Orlando Magic (72.41%)</t>
   </si>
   <si>
     <t>Philadelphia 76ers (59.38%)</t>
   </si>
   <si>
-    <t>Boston Celtics (90.62%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (55.17%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (64.52%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (60.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston Rockets (66.67%) </t>
-  </si>
-  <si>
-    <t>Indiana Pacers (62.50%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (82.76%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (82.3%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (58.1%)</t>
-  </si>
-  <si>
-    <t>Boston Celtics (73.1%)</t>
-  </si>
-  <si>
-    <t>Miami Heat (80.3%)</t>
-  </si>
-  <si>
-    <t>New York Knicks (68.4%)</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans (75.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston Rockets (71.5%) </t>
-  </si>
-  <si>
-    <t>Dallas Mavericks (61.3%)</t>
-  </si>
-  <si>
-    <t>Denver Nuggets (72.6%)</t>
+    <t>NBA, Wednesday 6th Mar 2024</t>
+  </si>
+  <si>
+    <t>Orlando Magic (36-26) vs Washington Wizards (9-52)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (40-21) vs Atlanta Hawks (27-34)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (39-21) vs Houston Rockets (27-34)</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies (21-41) vs Philadelphia 76ers (35-26)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (29-32) vs Utah Jazz (28-34)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (41-21) vs Golden State Warriors (32-28)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (42-19) vs Portland Trail Blazers (17-43)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (34-26) vs Los Angeles Lakers (35-29)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (65.62%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (72.41%)</t>
+  </si>
+  <si>
+    <t>Utah Jazz (63.33%)</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks (78.12%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (80.00%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (69.70%)</t>
+  </si>
+  <si>
+    <t>Orlando Magic (69.7%)</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers (62.4%)</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers (79.2%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers (70.2%)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (50.5%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (59.1%)</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder (87.4%)</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers (54.9%)</t>
   </si>
 </sst>
 </file>
@@ -515,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -529,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -540,101 +531,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/espn_comparison.xlsx
+++ b/espn_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A3024-A8D4-448B-B31D-E4739A42C2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4441B4B-3FDD-489B-B030-CD9319F91A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B1C7731E-7086-4086-8EDA-67E6004A321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ballgorithm</t>
   </si>
@@ -42,79 +42,70 @@
     <t>ESPN</t>
   </si>
   <si>
-    <t>Orlando Magic (72.41%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (59.38%)</t>
-  </si>
-  <si>
-    <t>NBA, Wednesday 6th Mar 2024</t>
-  </si>
-  <si>
-    <t>Orlando Magic (36-26) vs Washington Wizards (9-52)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (40-21) vs Atlanta Hawks (27-34)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (39-21) vs Houston Rockets (27-34)</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies (21-41) vs Philadelphia 76ers (35-26)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (29-32) vs Utah Jazz (28-34)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (41-21) vs Golden State Warriors (32-28)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (42-19) vs Portland Trail Blazers (17-43)</t>
-  </si>
-  <si>
-    <t>Sacramento Kings (34-26) vs Los Angeles Lakers (35-29)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (65.62%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (72.41%)</t>
-  </si>
-  <si>
-    <t>Utah Jazz (63.33%)</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks (78.12%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (80.00%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (69.70%)</t>
-  </si>
-  <si>
-    <t>Orlando Magic (69.7%)</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers (62.4%)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers (79.2%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers (70.2%)</t>
-  </si>
-  <si>
-    <t>Chicago Bulls (50.5%)</t>
-  </si>
-  <si>
-    <t>Golden State Warriors (59.1%)</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder (87.4%)</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers (54.9%)</t>
+    <t>NBA, Thursday 7th Mar 2024</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets (25-37) vs Detroit Pistons (9-52)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (43-19) vs Indiana Pacers (35-29)</t>
+  </si>
+  <si>
+    <t>Miami Heat (35-26) vs Dallas Mavericks (34-28)</t>
+  </si>
+  <si>
+    <t>Toronto Raptors (23-39) vs Phoenix Suns (36-26)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (48-13) vs Denver Nuggets (42-20)</t>
+  </si>
+  <si>
+    <t>Chicago Bulls (30-32) vs Golden State Warriors (33-28)</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs (13-49) vs Sacramento Kings (35-26)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (74.19%)</t>
+  </si>
+  <si>
+    <t>Miami Heat (56.67%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (60.61%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (90.62%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (53.12%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (59.26%)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (52.94%)</t>
+  </si>
+  <si>
+    <t>Detroit Pistons (52.8%)</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves (55.9%)</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks (57.8%)</t>
+  </si>
+  <si>
+    <t>Phoenix Suns (79.8%)</t>
+  </si>
+  <si>
+    <t>Boston Celtics (69.4%)</t>
+  </si>
+  <si>
+    <t>Golden State Warriors (72.8%)</t>
+  </si>
+  <si>
+    <t>Sacramento Kings (76.5%)</t>
   </si>
 </sst>
 </file>
@@ -506,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F14DA-D2CA-4CA0-A825-3C81CF6FB61A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -520,7 +511,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -531,90 +522,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
